--- a/TP2/Ej1/Mediciones No inversor/Bode/Caso 2.xlsx
+++ b/TP2/Ej1/Mediciones No inversor/Bode/Caso 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\Mediciones No inversor\Bode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\source\repos\TC\TP2\Ej1\Mediciones No inversor\Bode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FC1D75-A263-4B0D-87B0-CCD971886890}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AE7F39-8B8E-43CC-85F8-F293C78D7050}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -701,7 +701,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C9" s="5">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="5">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="7"/>
